--- a/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\TMP_EIT_suites\radiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
@@ -25,18 +25,18 @@
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211" calcOnSave="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="441">
   <si>
     <t>CaseInfo</t>
   </si>
@@ -1348,7 +1348,49 @@
     <t>radiant=ng2_3</t>
   </si>
   <si>
-    <t>debug_10_reveal_inserter_v2.00</t>
+    <t>debug_10_reveal_inserter_v2.01</t>
+  </si>
+  <si>
+    <t>HDL_syntax/00_device_flow/01_Thunderplus</t>
+  </si>
+  <si>
+    <t>Device_coverage</t>
+  </si>
+  <si>
+    <t>device coverage: Thunderplus</t>
+  </si>
+  <si>
+    <t>HDL_syntax/00_device_flow/02_Jedi</t>
+  </si>
+  <si>
+    <t>device coverage: Jedi</t>
+  </si>
+  <si>
+    <t>HDL_syntax/00_device_flow/03_Jedi_D2</t>
+  </si>
+  <si>
+    <t>device coverage: Jedi_D2</t>
+  </si>
+  <si>
+    <t>HDL_syntax/00_device_flow/04_Jedi_D1</t>
+  </si>
+  <si>
+    <t>device coverage: Jedi_D1</t>
+  </si>
+  <si>
+    <t>cmd= --run-export-bitstream</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
 </sst>
 </file>
@@ -5253,7 +5295,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{41778547-DEA6-4E5D-9DAF-FB4EF3474EA0}" diskRevisions="1" revisionId="498" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A4822E2F-5A05-4643-84A4-810DB5F4877E}" diskRevisions="1" revisionId="530" version="12">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5326,11 +5368,268 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{E6B56078-3384-4A26-82EC-5A857212A755}" dateTime="2021-02-01T13:42:29" maxSheetId="5" userName="Jason Wang" r:id="rId10" minRId="499" maxRId="523">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CA92E75E-BB28-4DE7-925B-1F96DD6335EB}" dateTime="2021-02-01T13:42:45" maxSheetId="5" userName="Jason Wang" r:id="rId11" minRId="525" maxRId="528">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A4822E2F-5A05-4643-84A4-810DB5F4877E}" dateTime="2021-02-01T13:42:49" maxSheetId="5" userName="Jason Wang" r:id="rId12">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="499" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.00</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.01</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="500" sId="2">
+    <nc r="D84" t="inlineStr">
+      <is>
+        <t>Device_coverage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="501" sId="2">
+    <nc r="E84" t="inlineStr">
+      <is>
+        <t>HDL_syntax/00_device_flow/01_Thunderplus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="502" sId="2">
+    <nc r="H84" t="inlineStr">
+      <is>
+        <t>device coverage: Thunderplus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="503" sId="2">
+    <nc r="D85" t="inlineStr">
+      <is>
+        <t>Device_coverage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="504" sId="2">
+    <nc r="E85" t="inlineStr">
+      <is>
+        <t>HDL_syntax/00_device_flow/02_Jedi</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="505" sId="2">
+    <nc r="H85" t="inlineStr">
+      <is>
+        <t>device coverage: Jedi</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="506" sId="2">
+    <nc r="D86" t="inlineStr">
+      <is>
+        <t>Device_coverage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="507" sId="2">
+    <nc r="E86" t="inlineStr">
+      <is>
+        <t>HDL_syntax/00_device_flow/03_Jedi_D2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="508" sId="2">
+    <nc r="H86" t="inlineStr">
+      <is>
+        <t>device coverage: Jedi_D2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="509" sId="2">
+    <nc r="D87" t="inlineStr">
+      <is>
+        <t>Device_coverage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="510" sId="2">
+    <nc r="E87" t="inlineStr">
+      <is>
+        <t>HDL_syntax/00_device_flow/04_Jedi_D1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="511" sId="2">
+    <nc r="H87" t="inlineStr">
+      <is>
+        <t>device coverage: Jedi_D1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="512" sId="2" numFmtId="30">
+    <nc r="F84">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="513" sId="2" numFmtId="30">
+    <nc r="F85">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="514" sId="2" numFmtId="30">
+    <nc r="F86">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="515" sId="2" numFmtId="30">
+    <nc r="F87">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="516" sId="2">
+    <nc r="O84" t="inlineStr">
+      <is>
+        <t>cmd= --run-export-bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="517" sId="2">
+    <nc r="O85" t="inlineStr">
+      <is>
+        <t>cmd= --run-export-bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="518" sId="2">
+    <nc r="O86" t="inlineStr">
+      <is>
+        <t>cmd= --run-export-bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="519" sId="2">
+    <nc r="O87" t="inlineStr">
+      <is>
+        <t>cmd= --run-export-bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="520" sId="2">
+    <nc r="A84" t="inlineStr">
+      <is>
+        <t>82</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="521" sId="2">
+    <nc r="A85" t="inlineStr">
+      <is>
+        <t>83</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="522" sId="2">
+    <nc r="A86" t="inlineStr">
+      <is>
+        <t>84</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="523" sId="2">
+    <nc r="A87" t="inlineStr">
+      <is>
+        <t>85</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="525" sId="2">
+    <nc r="S84" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="526" sId="2">
+    <nc r="S85" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="527" sId="2">
+    <nc r="S86" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="528" sId="2">
+    <nc r="S87" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9058,9 +9357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -9161,7 +9458,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -9174,14 +9471,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD83"/>
+  <dimension ref="A1:AD87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10718,6 +11015,98 @@
         <v>264</v>
       </c>
     </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y+CBG6/YKaQ6HsaQYTqaGGAc9K7SdI4KYNN5n42I5k04yiTX0Fn8xQwrYnwNAtl9mwRmr3UcHPCrpySoPgBJNA==" saltValue="2QS/OSgjoJCpqDc5Ec8Idw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD2"/>
@@ -10744,8 +11133,8 @@
       <autoFilter ref="A2:AD2"/>
     </customSheetView>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <autoFilter ref="A2:AD2"/>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
@@ -27,16 +27,16 @@
   </definedNames>
   <calcPr calcId="122211" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="444">
   <si>
     <t>CaseInfo</t>
   </si>
@@ -1345,12 +1345,6 @@
     <t>HDL_syntax/02_Jedi/security_flow/tst_06_encrypt_sub_module_lse</t>
   </si>
   <si>
-    <t>radiant=ng2_3</t>
-  </si>
-  <si>
-    <t>debug_10_reveal_inserter_v2.01</t>
-  </si>
-  <si>
     <t>HDL_syntax/00_device_flow/01_Thunderplus</t>
   </si>
   <si>
@@ -1391,6 +1385,21 @@
   </si>
   <si>
     <t>85</t>
+  </si>
+  <si>
+    <t>EIT2_case</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>EIT2_case/vm_rvl_syn</t>
+  </si>
+  <si>
+    <t>debug_10_reveal_inserter_v2.03</t>
+  </si>
+  <si>
+    <t>radiant=ng3_0</t>
   </si>
 </sst>
 </file>
@@ -5295,7 +5304,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A4822E2F-5A05-4643-84A4-810DB5F4877E}" diskRevisions="1" revisionId="530" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF0B5910-C65C-4A8A-B34F-A9C9A736C8DA}" diskRevisions="1" revisionId="716" version="25">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5392,6 +5401,110 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{B538ED5E-46F1-48BC-896F-B09868CB21BA}" dateTime="2021-04-07T16:13:04" maxSheetId="5" userName="Jason Wang" r:id="rId13" minRId="531">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{34C44565-7DBA-4F33-B233-96B68C1325C2}" dateTime="2021-04-07T16:33:14" maxSheetId="5" userName="Jason Wang" r:id="rId14" minRId="532">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{66591183-A2C7-4A89-861D-248EF57B70C2}" dateTime="2021-04-07T16:33:30" maxSheetId="5" userName="Jason Wang" r:id="rId15" minRId="534">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{44551B4E-3D1E-46BD-903B-EE9749939EAF}" dateTime="2021-04-07T16:33:58" maxSheetId="5" userName="Jason Wang" r:id="rId16" minRId="536">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6057E85C-6986-459B-B35C-C9F3B1862B98}" dateTime="2021-04-07T16:34:17" maxSheetId="5" userName="Jason Wang" r:id="rId17" minRId="538" maxRId="539">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8F6BB5B2-6B11-41F1-81F3-BCFCCBA1DCDF}" dateTime="2021-04-07T16:34:21" maxSheetId="5" userName="Jason Wang" r:id="rId18">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{22229C87-AAAA-4955-A1DE-3ED51AC8D528}" dateTime="2021-04-07T16:34:29" maxSheetId="5" userName="Jason Wang" r:id="rId19" minRId="542">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{83F273B6-BB07-44F9-96D5-4E70F250D8C2}" dateTime="2021-04-07T16:35:10" maxSheetId="5" userName="Jason Wang" r:id="rId20" minRId="543">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6AA10395-D191-4936-BE28-F7DBBCFE449A}" dateTime="2021-04-07T16:48:59" maxSheetId="5" userName="Jason Wang" r:id="rId21" minRId="544" maxRId="545">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8F7AE725-3DF2-46C9-B6E1-03D43D623910}" dateTime="2021-04-07T16:49:05" maxSheetId="5" userName="Jason Wang" r:id="rId22">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E1379FDB-647E-4A9F-A83B-F37D3CF69A01}" dateTime="2021-04-07T16:49:29" maxSheetId="5" userName="Jason Wang" r:id="rId23" minRId="548" maxRId="630">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A5C5644B-FB38-4A38-9224-192114AD8D8C}" dateTime="2021-04-07T16:49:30" maxSheetId="5" userName="Jason Wang" r:id="rId24">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF0B5910-C65C-4A8A-B34F-A9C9A736C8DA}" dateTime="2021-04-07T16:51:45" maxSheetId="5" userName="Jason Wang" r:id="rId25" minRId="633" maxRId="715">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -5632,6 +5745,130 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="531" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.01</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.02</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="532" sId="2">
+    <nc r="D88" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="534" sId="2">
+    <nc r="A88" t="inlineStr">
+      <is>
+        <t>86</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="536" sId="2">
+    <nc r="E88" t="inlineStr">
+      <is>
+        <t>EIT2_case/vm_rvl_syn</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="538" sId="2">
+    <nc r="S88" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="539" sId="2">
+    <nc r="O88" t="inlineStr">
+      <is>
+        <t>cmd= --run-par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="542" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.02</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.03</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="2">
@@ -6174,6 +6411,1340 @@
     <formula>case!$A$2:$AD$2</formula>
   </rdn>
   <rcv guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="543" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng2_3</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng3_0</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="544" sId="2" numFmtId="30">
+    <nc r="F88">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="545" sId="2">
+    <oc r="O88" t="inlineStr">
+      <is>
+        <t>cmd= --run-par</t>
+      </is>
+    </oc>
+    <nc r="O88" t="inlineStr">
+      <is>
+        <t>cmd= --run-export-bitstream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="548" sId="2">
+    <nc r="B87" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="549" sId="2">
+    <nc r="B86" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="550" sId="2">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="551" sId="2">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="552" sId="2">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="553" sId="2">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="554" sId="2">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="555" sId="2">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="556" sId="2">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="557" sId="2">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="558" sId="2">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="559" sId="2">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="560" sId="2">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="561" sId="2">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="562" sId="2">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="563" sId="2">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="564" sId="2">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="565" sId="2">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="566" sId="2">
+    <nc r="B21" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="567" sId="2">
+    <nc r="B22" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="568" sId="2">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="569" sId="2">
+    <nc r="B24" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="570" sId="2">
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="571" sId="2">
+    <nc r="B26" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="572" sId="2">
+    <nc r="B27" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="573" sId="2">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="574" sId="2">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="575" sId="2">
+    <nc r="B30" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="576" sId="2">
+    <nc r="B31" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="577" sId="2">
+    <nc r="B32" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="578" sId="2">
+    <nc r="B33" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="579" sId="2">
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="580" sId="2">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="581" sId="2">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="582" sId="2">
+    <nc r="B37" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="583" sId="2">
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="584" sId="2">
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="585" sId="2">
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="586" sId="2">
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="587" sId="2">
+    <nc r="B42" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="588" sId="2">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="589" sId="2">
+    <nc r="B44" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="590" sId="2">
+    <nc r="B45" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="591" sId="2">
+    <nc r="B46" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="592" sId="2">
+    <nc r="B47" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="593" sId="2">
+    <nc r="B48" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="594" sId="2">
+    <nc r="B49" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="595" sId="2">
+    <nc r="B50" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="596" sId="2">
+    <nc r="B51" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="597" sId="2">
+    <nc r="B52" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="598" sId="2">
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="599" sId="2">
+    <nc r="B54" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="600" sId="2">
+    <nc r="B55" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="601" sId="2">
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="602" sId="2">
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="603" sId="2">
+    <nc r="B58" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="604" sId="2">
+    <nc r="B59" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="605" sId="2">
+    <nc r="B60" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="606" sId="2">
+    <nc r="B61" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="607" sId="2">
+    <nc r="B62" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="608" sId="2">
+    <nc r="B63" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="609" sId="2">
+    <nc r="B64" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="610" sId="2">
+    <nc r="B65" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="611" sId="2">
+    <nc r="B66" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="612" sId="2">
+    <nc r="B67" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="613" sId="2">
+    <nc r="B68" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="614" sId="2">
+    <nc r="B69" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="615" sId="2">
+    <nc r="B70" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="616" sId="2">
+    <nc r="B71" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="617" sId="2">
+    <nc r="B72" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="618" sId="2">
+    <nc r="B73" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="619" sId="2">
+    <nc r="B74" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="620" sId="2">
+    <nc r="B75" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="621" sId="2">
+    <nc r="B76" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="622" sId="2">
+    <nc r="B77" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="623" sId="2">
+    <nc r="B78" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="624" sId="2">
+    <nc r="B79" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="625" sId="2">
+    <nc r="B80" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="626" sId="2">
+    <nc r="B81" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="627" sId="2">
+    <nc r="B82" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="628" sId="2">
+    <nc r="B83" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="629" sId="2">
+    <nc r="B84" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="630" sId="2">
+    <nc r="B85" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="633" sId="2">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B5"/>
+  </rcc>
+  <rcc rId="634" sId="2">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B6"/>
+  </rcc>
+  <rcc rId="635" sId="2">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B7"/>
+  </rcc>
+  <rcc rId="636" sId="2">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B8"/>
+  </rcc>
+  <rcc rId="637" sId="2">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B9"/>
+  </rcc>
+  <rcc rId="638" sId="2">
+    <oc r="B10" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B10"/>
+  </rcc>
+  <rcc rId="639" sId="2">
+    <oc r="B11" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B11"/>
+  </rcc>
+  <rcc rId="640" sId="2">
+    <oc r="B12" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B12"/>
+  </rcc>
+  <rcc rId="641" sId="2">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B13"/>
+  </rcc>
+  <rcc rId="642" sId="2">
+    <oc r="B14" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B14"/>
+  </rcc>
+  <rcc rId="643" sId="2">
+    <oc r="B15" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B15"/>
+  </rcc>
+  <rcc rId="644" sId="2">
+    <oc r="B16" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B16"/>
+  </rcc>
+  <rcc rId="645" sId="2">
+    <oc r="B17" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B17"/>
+  </rcc>
+  <rcc rId="646" sId="2">
+    <oc r="B18" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B18"/>
+  </rcc>
+  <rcc rId="647" sId="2">
+    <oc r="B19" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B19"/>
+  </rcc>
+  <rcc rId="648" sId="2">
+    <oc r="B20" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B20"/>
+  </rcc>
+  <rcc rId="649" sId="2">
+    <oc r="B21" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B21"/>
+  </rcc>
+  <rcc rId="650" sId="2">
+    <oc r="B22" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B22"/>
+  </rcc>
+  <rcc rId="651" sId="2">
+    <oc r="B23" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B23"/>
+  </rcc>
+  <rcc rId="652" sId="2">
+    <oc r="B24" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B24"/>
+  </rcc>
+  <rcc rId="653" sId="2">
+    <oc r="B25" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B25"/>
+  </rcc>
+  <rcc rId="654" sId="2">
+    <oc r="B26" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B26"/>
+  </rcc>
+  <rcc rId="655" sId="2">
+    <oc r="B27" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B27"/>
+  </rcc>
+  <rcc rId="656" sId="2">
+    <oc r="B28" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B28"/>
+  </rcc>
+  <rcc rId="657" sId="2">
+    <oc r="B29" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B29"/>
+  </rcc>
+  <rcc rId="658" sId="2">
+    <oc r="B30" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B30"/>
+  </rcc>
+  <rcc rId="659" sId="2">
+    <oc r="B31" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B31"/>
+  </rcc>
+  <rcc rId="660" sId="2">
+    <oc r="B32" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B32"/>
+  </rcc>
+  <rcc rId="661" sId="2">
+    <oc r="B33" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B33"/>
+  </rcc>
+  <rcc rId="662" sId="2">
+    <oc r="B34" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B34"/>
+  </rcc>
+  <rcc rId="663" sId="2">
+    <oc r="B35" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B35"/>
+  </rcc>
+  <rcc rId="664" sId="2">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B36"/>
+  </rcc>
+  <rcc rId="665" sId="2">
+    <oc r="B37" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B37"/>
+  </rcc>
+  <rcc rId="666" sId="2">
+    <oc r="B38" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B38"/>
+  </rcc>
+  <rcc rId="667" sId="2">
+    <oc r="B39" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B39"/>
+  </rcc>
+  <rcc rId="668" sId="2">
+    <oc r="B40" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B40"/>
+  </rcc>
+  <rcc rId="669" sId="2">
+    <oc r="B41" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B41"/>
+  </rcc>
+  <rcc rId="670" sId="2">
+    <oc r="B42" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B42"/>
+  </rcc>
+  <rcc rId="671" sId="2">
+    <oc r="B43" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B43"/>
+  </rcc>
+  <rcc rId="672" sId="2">
+    <oc r="B44" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B44"/>
+  </rcc>
+  <rcc rId="673" sId="2">
+    <oc r="B45" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B45"/>
+  </rcc>
+  <rcc rId="674" sId="2">
+    <oc r="B46" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B46"/>
+  </rcc>
+  <rcc rId="675" sId="2">
+    <oc r="B47" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B47"/>
+  </rcc>
+  <rcc rId="676" sId="2">
+    <oc r="B48" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B48"/>
+  </rcc>
+  <rcc rId="677" sId="2">
+    <oc r="B49" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B49"/>
+  </rcc>
+  <rcc rId="678" sId="2">
+    <oc r="B50" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B50"/>
+  </rcc>
+  <rcc rId="679" sId="2">
+    <oc r="B51" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B51"/>
+  </rcc>
+  <rcc rId="680" sId="2">
+    <oc r="B52" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B52"/>
+  </rcc>
+  <rcc rId="681" sId="2">
+    <oc r="B53" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B53"/>
+  </rcc>
+  <rcc rId="682" sId="2">
+    <oc r="B54" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B54"/>
+  </rcc>
+  <rcc rId="683" sId="2">
+    <oc r="B55" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B55"/>
+  </rcc>
+  <rcc rId="684" sId="2">
+    <oc r="B56" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B56"/>
+  </rcc>
+  <rcc rId="685" sId="2">
+    <oc r="B57" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B57"/>
+  </rcc>
+  <rcc rId="686" sId="2">
+    <oc r="B58" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B58"/>
+  </rcc>
+  <rcc rId="687" sId="2">
+    <oc r="B59" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B59"/>
+  </rcc>
+  <rcc rId="688" sId="2">
+    <oc r="B60" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B60"/>
+  </rcc>
+  <rcc rId="689" sId="2">
+    <oc r="B61" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B61"/>
+  </rcc>
+  <rcc rId="690" sId="2">
+    <oc r="B62" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B62"/>
+  </rcc>
+  <rcc rId="691" sId="2">
+    <oc r="B63" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B63"/>
+  </rcc>
+  <rcc rId="692" sId="2">
+    <oc r="B64" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B64"/>
+  </rcc>
+  <rcc rId="693" sId="2">
+    <oc r="B65" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B65"/>
+  </rcc>
+  <rcc rId="694" sId="2">
+    <oc r="B66" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B66"/>
+  </rcc>
+  <rcc rId="695" sId="2">
+    <oc r="B67" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B67"/>
+  </rcc>
+  <rcc rId="696" sId="2">
+    <oc r="B68" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B68"/>
+  </rcc>
+  <rcc rId="697" sId="2">
+    <oc r="B69" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B69"/>
+  </rcc>
+  <rcc rId="698" sId="2">
+    <oc r="B70" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B70"/>
+  </rcc>
+  <rcc rId="699" sId="2">
+    <oc r="B71" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B71"/>
+  </rcc>
+  <rcc rId="700" sId="2">
+    <oc r="B72" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B72"/>
+  </rcc>
+  <rcc rId="701" sId="2">
+    <oc r="B73" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B73"/>
+  </rcc>
+  <rcc rId="702" sId="2">
+    <oc r="B74" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B74"/>
+  </rcc>
+  <rcc rId="703" sId="2">
+    <oc r="B75" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B75"/>
+  </rcc>
+  <rcc rId="704" sId="2">
+    <oc r="B76" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B76"/>
+  </rcc>
+  <rcc rId="705" sId="2">
+    <oc r="B77" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B77"/>
+  </rcc>
+  <rcc rId="706" sId="2">
+    <oc r="B78" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B78"/>
+  </rcc>
+  <rcc rId="707" sId="2">
+    <oc r="B79" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B79"/>
+  </rcc>
+  <rcc rId="708" sId="2">
+    <oc r="B80" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B80"/>
+  </rcc>
+  <rcc rId="709" sId="2">
+    <oc r="B81" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B81"/>
+  </rcc>
+  <rcc rId="710" sId="2">
+    <oc r="B82" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B82"/>
+  </rcc>
+  <rcc rId="711" sId="2">
+    <oc r="B83" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B83"/>
+  </rcc>
+  <rcc rId="712" sId="2">
+    <oc r="B84" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B84"/>
+  </rcc>
+  <rcc rId="713" sId="2">
+    <oc r="B85" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B85"/>
+  </rcc>
+  <rcc rId="714" sId="2">
+    <oc r="B86" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B86"/>
+  </rcc>
+  <rcc rId="715" sId="2">
+    <oc r="B87" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B87"/>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
 </revisions>
 </file>
 
@@ -9387,7 +10958,7 @@
         <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9421,7 +10992,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9442,23 +11013,23 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
     <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}">
       <selection activeCell="F20" sqref="F20"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -9471,14 +11042,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11017,22 +12588,22 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F84" s="2">
         <v>2</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>264</v>
@@ -11040,22 +12611,22 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="F85" s="2">
         <v>2</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>264</v>
@@ -11063,22 +12634,22 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F86" s="2">
         <v>2</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>264</v>
@@ -11086,24 +12657,44 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F87" s="2">
         <v>2</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S87" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="S88" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -11111,30 +12702,30 @@
   <sheetProtection algorithmName="SHA-512" hashValue="y+CBG6/YKaQ6HsaQYTqaGGAc9K7SdI4KYNN5n42I5k04yiTX0Fn8xQwrYnwNAtl9mwRmr3UcHPCrpySoPgBJNA==" saltValue="2QS/OSgjoJCpqDc5Ec8Idw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD2"/>
   <customSheetViews>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A2:AD2"/>
+    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
     <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="M60" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A83" sqref="A83:XFD83"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AD2"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <autoFilter ref="A2:AD2"/>
@@ -13691,12 +15282,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ap+vydlQsTivses2kTOZJOfe+E+ofk18ovQVkbwX/cy/2QzQqNYlkd6ZRwhTqYv60tXLJj9O4rjHfeOPlaqbDA==" saltValue="NIz07f4XZ+x9XJy8gC1img==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" scale="115" topLeftCell="A172">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A172">
+    <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -13776,6 +15367,9 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13787,9 +15381,6 @@
     <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\reveal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-12" yWindow="6300" windowWidth="28836" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
   </definedNames>
-  <calcPr calcId="122211" calcOnSave="0"/>
+  <calcPr calcId="122211"/>
   <customWorkbookViews>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" xWindow="725" yWindow="226" windowWidth="1821" windowHeight="1123" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="454">
   <si>
     <t>CaseInfo</t>
   </si>
@@ -1396,10 +1396,40 @@
     <t>EIT2_case/vm_rvl_syn</t>
   </si>
   <si>
-    <t>debug_10_reveal_inserter_v2.03</t>
-  </si>
-  <si>
     <t>radiant=ng3_0</t>
+  </si>
+  <si>
+    <t>EIT2_case/DNG-11576</t>
+  </si>
+  <si>
+    <t>EIT2_case/DNG-12196</t>
+  </si>
+  <si>
+    <t>EIT2_case/DNG-12432</t>
+  </si>
+  <si>
+    <t>EIT2_case/DNG-13341</t>
+  </si>
+  <si>
+    <t>EIT2_case/SOF-131242</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>debug_10_reveal_inserter_v2.04</t>
   </si>
 </sst>
 </file>
@@ -5304,7 +5334,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF0B5910-C65C-4A8A-B34F-A9C9A736C8DA}" diskRevisions="1" revisionId="716" version="25">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E6F4DAAD-EBF1-426B-849D-120947BFE84D}" diskRevisions="1" revisionId="744" version="27">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5505,6 +5535,22 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{A86E4534-B233-429E-893B-41E729726A17}" dateTime="2022-06-02T14:25:12" maxSheetId="5" userName="Jason Wang" r:id="rId26" minRId="717" maxRId="741">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E6F4DAAD-EBF1-426B-849D-120947BFE84D}" dateTime="2022-06-02T14:26:51" maxSheetId="5" userName="Jason Wang" r:id="rId27" minRId="743">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7738,6 +7784,205 @@
       </is>
     </oc>
     <nc r="B87"/>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="717" sId="2">
+    <nc r="E89" t="inlineStr">
+      <is>
+        <t>EIT2_case/DNG-11576</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="718" sId="2">
+    <nc r="E90" t="inlineStr">
+      <is>
+        <t>EIT2_case/DNG-12196</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="719" sId="2">
+    <nc r="E91" t="inlineStr">
+      <is>
+        <t>EIT2_case/DNG-12432</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="720" sId="2">
+    <nc r="E92" t="inlineStr">
+      <is>
+        <t>EIT2_case/DNG-13341</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="721" sId="2">
+    <nc r="E93" t="inlineStr">
+      <is>
+        <t>EIT2_case/SOF-131242</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="722" sId="2">
+    <nc r="D89" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="723" sId="2">
+    <nc r="D90" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="724" sId="2">
+    <nc r="D91" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="725" sId="2">
+    <nc r="D92" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="726" sId="2">
+    <nc r="D93" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="727" sId="2">
+    <nc r="A89" t="inlineStr">
+      <is>
+        <t>87</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="728" sId="2">
+    <nc r="A90" t="inlineStr">
+      <is>
+        <t>88</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="729" sId="2">
+    <nc r="A91" t="inlineStr">
+      <is>
+        <t>89</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="730" sId="2">
+    <nc r="A92" t="inlineStr">
+      <is>
+        <t>90</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="731" sId="2">
+    <nc r="A93" t="inlineStr">
+      <is>
+        <t>91</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="732" sId="2" numFmtId="30">
+    <nc r="F89">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="733" sId="2" numFmtId="30">
+    <nc r="F90">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="734" sId="2" numFmtId="30">
+    <nc r="F91">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="735" sId="2" numFmtId="30">
+    <nc r="F92">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="736" sId="2" numFmtId="30">
+    <nc r="F93">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="737" sId="2">
+    <nc r="S89" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="738" sId="2">
+    <nc r="S90" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="739" sId="2">
+    <nc r="S91" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="740" sId="2">
+    <nc r="S92" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="741" sId="2">
+    <nc r="S93" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="743" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.03</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>debug_10_reveal_inserter_v2.04</t>
+      </is>
+    </nc>
   </rcc>
   <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
@@ -10928,9 +11173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
@@ -10958,7 +11205,7 @@
         <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10992,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11014,7 +11261,7 @@
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -11042,46 +11289,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD88"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
     <col min="8" max="8" width="37" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="11" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="2" customWidth="1"/>
     <col min="23" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="10.140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.109375" style="2" customWidth="1"/>
     <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>12</v>
       </c>
@@ -11117,7 +11364,7 @@
       <c r="AC1" s="70"/>
       <c r="AD1" s="70"/>
     </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -11209,7 +11456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickTop="1">
+    <row r="3" spans="1:30" ht="15" thickTop="1">
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
@@ -12695,6 +12942,91 @@
         <v>434</v>
       </c>
       <c r="S88" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="S93" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -12703,8 +13035,8 @@
   <autoFilter ref="A2:AD2"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A2:AD2"/>
@@ -12811,18 +13143,18 @@
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="32" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -12845,7 +13177,7 @@
     <row r="107" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="108" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="109" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="110" spans="1:14" ht="15.75" thickBot="1">
+    <row r="110" spans="1:14" ht="15" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>71</v>
       </c>
@@ -12853,7 +13185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15.75" thickBot="1">
+    <row r="111" spans="1:14" ht="15" thickBot="1">
       <c r="A111" s="9" t="s">
         <v>73</v>
       </c>
@@ -13681,7 +14013,7 @@
       <c r="M141" s="18"/>
       <c r="N141" s="19"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75" thickBot="1">
+    <row r="142" spans="1:14" ht="15" thickBot="1">
       <c r="A142" s="20" t="s">
         <v>112</v>
       </c>
@@ -13705,7 +14037,7 @@
       <c r="M142" s="21"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1">
+    <row r="145" spans="1:8" ht="15" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>113</v>
       </c>
@@ -14323,7 +14655,7 @@
       </c>
       <c r="H172" s="16"/>
     </row>
-    <row r="173" spans="1:8" ht="90">
+    <row r="173" spans="1:8" ht="86.4">
       <c r="A173" s="26">
         <v>27</v>
       </c>
@@ -14417,7 +14749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" thickBot="1">
+    <row r="177" spans="1:8" ht="15" thickBot="1">
       <c r="A177" s="31">
         <v>31</v>
       </c>
@@ -14573,7 +14905,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" thickBot="1">
+    <row r="184" spans="1:8" ht="15" thickBot="1">
       <c r="A184" s="35">
         <v>38</v>
       </c>
@@ -14613,7 +14945,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1">
+    <row r="197" spans="1:7" ht="15" thickBot="1">
       <c r="A197" s="6" t="s">
         <v>197</v>
       </c>
@@ -14887,7 +15219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1">
+    <row r="214" spans="1:7" ht="15" thickBot="1">
       <c r="A214" s="96"/>
       <c r="B214" s="97"/>
       <c r="C214" s="97" t="s">
@@ -14921,7 +15253,7 @@
       <c r="D217" s="37"/>
       <c r="E217" s="37"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" thickBot="1">
+    <row r="218" spans="1:7" ht="15" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>221</v>
       </c>
@@ -14929,7 +15261,7 @@
       <c r="D218" s="37"/>
       <c r="E218" s="37"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" thickBot="1">
+    <row r="219" spans="1:7" ht="15" thickBot="1">
       <c r="A219" s="45" t="s">
         <v>222</v>
       </c>
@@ -15017,12 +15349,12 @@
     <row r="224" spans="1:7">
       <c r="C224" s="51"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" thickBot="1">
+    <row r="226" spans="1:7" ht="15" thickBot="1">
       <c r="A226" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" thickBot="1">
+    <row r="227" spans="1:7" ht="15" thickBot="1">
       <c r="A227" s="9" t="s">
         <v>233</v>
       </c>
@@ -15262,7 +15594,7 @@
       <c r="F240" s="64"/>
       <c r="G240" s="43"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" thickBot="1">
+    <row r="241" spans="1:7" ht="15" thickBot="1">
       <c r="A241" s="65">
         <v>44118</v>
       </c>
@@ -15358,7 +15690,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/debug_10_reveal_inserter.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\reveal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\cr_verify\EIT2_add_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{03C70451-8251-48B0-B3AC-56E000539ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="6300" windowWidth="28836" windowHeight="6240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -27,16 +28,16 @@
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" xWindow="725" yWindow="226" windowWidth="1821" windowHeight="1123" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="462">
   <si>
     <t>CaseInfo</t>
   </si>
@@ -1396,9 +1397,6 @@
     <t>EIT2_case/vm_rvl_syn</t>
   </si>
   <si>
-    <t>radiant=ng3_0</t>
-  </si>
-  <si>
     <t>EIT2_case/DNG-11576</t>
   </si>
   <si>
@@ -1430,12 +1428,39 @@
   </si>
   <si>
     <t>debug_10_reveal_inserter_v2.04</t>
+  </si>
+  <si>
+    <t>EIT2_case/demo_controller_assign</t>
+  </si>
+  <si>
+    <t>EIT2_case/demo_vhdl_controller</t>
+  </si>
+  <si>
+    <t>EIT2_case/Furud_record_portmap</t>
+  </si>
+  <si>
+    <t>EIT2_case/mre_vhdl2008_context</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>radiant=ng2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -2520,7 +2545,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2528,13 +2553,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47">
@@ -2594,7 +2619,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2630,22 +2655,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2675,22 +2691,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2705,13 +2715,13 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2794,7 +2804,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2818,19 +2828,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2868,19 +2878,19 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="49"/>
+    <cellStyle name="Hyperlink 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41"/>
-    <cellStyle name="Normal 2 2" xfId="47"/>
-    <cellStyle name="Normal 3" xfId="44"/>
-    <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Normal 5" xfId="46"/>
-    <cellStyle name="Normal 6" xfId="43"/>
-    <cellStyle name="Normal 6 2" xfId="48"/>
-    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 6" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -2916,7 +2926,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5032,7 +5048,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5087,7 +5109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5132,7 +5160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5251,7 +5285,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5298,7 +5338,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5334,7 +5380,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E6F4DAAD-EBF1-426B-849D-120947BFE84D}" diskRevisions="1" revisionId="744" version="27">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ABF4DDB2-E3A5-4010-A007-951EA40A3499}" diskRevisions="1" revisionId="946" version="31">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5551,6 +5597,38 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{5E667A8D-4480-4701-9896-8B81373A6499}" dateTime="2024-06-26T16:24:56" maxSheetId="5" userName="Jason Wang" r:id="rId28" minRId="745" maxRId="764">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{38521F35-6621-469F-A69C-1DE4732BC1AE}" dateTime="2024-06-26T16:25:26" maxSheetId="5" userName="Jason Wang" r:id="rId29" minRId="766" maxRId="855">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{582178A9-3CD8-4DF1-9497-8246B7F56589}" dateTime="2024-06-26T16:25:37" maxSheetId="5" userName="Jason Wang" r:id="rId30" minRId="856">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ABF4DDB2-E3A5-4010-A007-951EA40A3499}" dateTime="2024-06-26T17:04:18" maxSheetId="5" userName="Jason Wang" r:id="rId31" minRId="857" maxRId="946">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7993,6 +8071,784 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="745" sId="2">
+    <nc r="E94" t="inlineStr">
+      <is>
+        <t>EIT2_case/demo_controller_assign</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="746" sId="2">
+    <nc r="E95" t="inlineStr">
+      <is>
+        <t>EIT2_case/demo_vhdl_controller</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="747" sId="2">
+    <nc r="E96" t="inlineStr">
+      <is>
+        <t>EIT2_case/Furud_record_portmap</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="748" sId="2">
+    <nc r="E97" t="inlineStr">
+      <is>
+        <t>EIT2_case/mre_vhdl2008_context</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="749" sId="2">
+    <nc r="D94" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="750" sId="2">
+    <nc r="D95" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="751" sId="2">
+    <nc r="D96" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="752" sId="2">
+    <nc r="D97" t="inlineStr">
+      <is>
+        <t>EIT2_case</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="753" sId="2">
+    <nc r="A94" t="inlineStr">
+      <is>
+        <t>92</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="754" sId="2">
+    <nc r="A95" t="inlineStr">
+      <is>
+        <t>93</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="755" sId="2">
+    <nc r="A96" t="inlineStr">
+      <is>
+        <t>94</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="756" sId="2">
+    <nc r="A97" t="inlineStr">
+      <is>
+        <t>95</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="757" sId="2" numFmtId="30">
+    <nc r="F94">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="758" sId="2" numFmtId="30">
+    <nc r="F95">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="759" sId="2" numFmtId="30">
+    <nc r="F96">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="760" sId="2" numFmtId="30">
+    <nc r="F97">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="761" sId="2">
+    <nc r="S94" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="762" sId="2">
+    <nc r="S95" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="763" sId="2">
+    <nc r="S96" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="764" sId="2">
+    <nc r="S97" t="inlineStr">
+      <is>
+        <t>reveal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="766" sId="2">
+    <nc r="B93" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="767" sId="2">
+    <nc r="B92" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="768" sId="2">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="769" sId="2">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="770" sId="2">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="771" sId="2">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="772" sId="2">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="773" sId="2">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="774" sId="2">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="775" sId="2">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="776" sId="2">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="777" sId="2">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="778" sId="2">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="779" sId="2">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="780" sId="2">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="781" sId="2">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="782" sId="2">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="783" sId="2">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="784" sId="2">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="785" sId="2">
+    <nc r="B21" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="786" sId="2">
+    <nc r="B22" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="787" sId="2">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="788" sId="2">
+    <nc r="B24" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="789" sId="2">
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="790" sId="2">
+    <nc r="B26" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="791" sId="2">
+    <nc r="B27" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="792" sId="2">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="793" sId="2">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="794" sId="2">
+    <nc r="B30" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="795" sId="2">
+    <nc r="B31" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="796" sId="2">
+    <nc r="B32" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="797" sId="2">
+    <nc r="B33" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="798" sId="2">
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="799" sId="2">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="800" sId="2">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="801" sId="2">
+    <nc r="B37" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="802" sId="2">
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="803" sId="2">
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="804" sId="2">
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="805" sId="2">
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="806" sId="2">
+    <nc r="B42" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="807" sId="2">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="808" sId="2">
+    <nc r="B44" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="809" sId="2">
+    <nc r="B45" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="810" sId="2">
+    <nc r="B46" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="811" sId="2">
+    <nc r="B47" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="812" sId="2">
+    <nc r="B48" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="813" sId="2">
+    <nc r="B49" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="814" sId="2">
+    <nc r="B50" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="815" sId="2">
+    <nc r="B51" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="816" sId="2">
+    <nc r="B52" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="817" sId="2">
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="818" sId="2">
+    <nc r="B54" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="819" sId="2">
+    <nc r="B55" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="820" sId="2">
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="821" sId="2">
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="822" sId="2">
+    <nc r="B58" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="823" sId="2">
+    <nc r="B59" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="824" sId="2">
+    <nc r="B60" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="825" sId="2">
+    <nc r="B61" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="826" sId="2">
+    <nc r="B62" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="827" sId="2">
+    <nc r="B63" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="828" sId="2">
+    <nc r="B64" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="829" sId="2">
+    <nc r="B65" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="830" sId="2">
+    <nc r="B66" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="831" sId="2">
+    <nc r="B67" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="832" sId="2">
+    <nc r="B68" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="833" sId="2">
+    <nc r="B69" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="834" sId="2">
+    <nc r="B70" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="835" sId="2">
+    <nc r="B71" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="836" sId="2">
+    <nc r="B72" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="837" sId="2">
+    <nc r="B73" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="838" sId="2">
+    <nc r="B74" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="839" sId="2">
+    <nc r="B75" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="840" sId="2">
+    <nc r="B76" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="841" sId="2">
+    <nc r="B77" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="842" sId="2">
+    <nc r="B78" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="843" sId="2">
+    <nc r="B79" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="844" sId="2">
+    <nc r="B80" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="845" sId="2">
+    <nc r="B81" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="846" sId="2">
+    <nc r="B82" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="847" sId="2">
+    <nc r="B83" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="848" sId="2">
+    <nc r="B84" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="849" sId="2">
+    <nc r="B85" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="850" sId="2">
+    <nc r="B86" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="851" sId="2">
+    <nc r="B87" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="852" sId="2">
+    <nc r="B88" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="853" sId="2">
+    <nc r="B89" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="854" sId="2">
+    <nc r="B90" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="855" sId="2">
+    <nc r="B91" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="69" sId="1">
@@ -10794,6 +11650,748 @@
     <oldFormula>case!$A$2:$AD$2</oldFormula>
   </rdn>
   <rcv guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="856" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng3_0</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng2024</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="857" sId="2">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B4"/>
+  </rcc>
+  <rcc rId="858" sId="2">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B5"/>
+  </rcc>
+  <rcc rId="859" sId="2">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B6"/>
+  </rcc>
+  <rcc rId="860" sId="2">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B7"/>
+  </rcc>
+  <rcc rId="861" sId="2">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B8"/>
+  </rcc>
+  <rcc rId="862" sId="2">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B9"/>
+  </rcc>
+  <rcc rId="863" sId="2">
+    <oc r="B10" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B10"/>
+  </rcc>
+  <rcc rId="864" sId="2">
+    <oc r="B11" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B11"/>
+  </rcc>
+  <rcc rId="865" sId="2">
+    <oc r="B12" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B12"/>
+  </rcc>
+  <rcc rId="866" sId="2">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B13"/>
+  </rcc>
+  <rcc rId="867" sId="2">
+    <oc r="B14" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B14"/>
+  </rcc>
+  <rcc rId="868" sId="2">
+    <oc r="B15" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B15"/>
+  </rcc>
+  <rcc rId="869" sId="2">
+    <oc r="B16" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B16"/>
+  </rcc>
+  <rcc rId="870" sId="2">
+    <oc r="B17" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B17"/>
+  </rcc>
+  <rcc rId="871" sId="2">
+    <oc r="B18" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B18"/>
+  </rcc>
+  <rcc rId="872" sId="2">
+    <oc r="B19" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B19"/>
+  </rcc>
+  <rcc rId="873" sId="2">
+    <oc r="B20" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B20"/>
+  </rcc>
+  <rcc rId="874" sId="2">
+    <oc r="B21" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B21"/>
+  </rcc>
+  <rcc rId="875" sId="2">
+    <oc r="B22" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B22"/>
+  </rcc>
+  <rcc rId="876" sId="2">
+    <oc r="B23" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B23"/>
+  </rcc>
+  <rcc rId="877" sId="2">
+    <oc r="B24" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B24"/>
+  </rcc>
+  <rcc rId="878" sId="2">
+    <oc r="B25" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B25"/>
+  </rcc>
+  <rcc rId="879" sId="2">
+    <oc r="B26" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B26"/>
+  </rcc>
+  <rcc rId="880" sId="2">
+    <oc r="B27" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B27"/>
+  </rcc>
+  <rcc rId="881" sId="2">
+    <oc r="B28" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B28"/>
+  </rcc>
+  <rcc rId="882" sId="2">
+    <oc r="B29" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B29"/>
+  </rcc>
+  <rcc rId="883" sId="2">
+    <oc r="B30" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B30"/>
+  </rcc>
+  <rcc rId="884" sId="2">
+    <oc r="B31" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B31"/>
+  </rcc>
+  <rcc rId="885" sId="2">
+    <oc r="B32" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B32"/>
+  </rcc>
+  <rcc rId="886" sId="2">
+    <oc r="B33" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B33"/>
+  </rcc>
+  <rcc rId="887" sId="2">
+    <oc r="B34" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B34"/>
+  </rcc>
+  <rcc rId="888" sId="2">
+    <oc r="B35" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B35"/>
+  </rcc>
+  <rcc rId="889" sId="2">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B36"/>
+  </rcc>
+  <rcc rId="890" sId="2">
+    <oc r="B37" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B37"/>
+  </rcc>
+  <rcc rId="891" sId="2">
+    <oc r="B38" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B38"/>
+  </rcc>
+  <rcc rId="892" sId="2">
+    <oc r="B39" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B39"/>
+  </rcc>
+  <rcc rId="893" sId="2">
+    <oc r="B40" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B40"/>
+  </rcc>
+  <rcc rId="894" sId="2">
+    <oc r="B41" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B41"/>
+  </rcc>
+  <rcc rId="895" sId="2">
+    <oc r="B42" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B42"/>
+  </rcc>
+  <rcc rId="896" sId="2">
+    <oc r="B43" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B43"/>
+  </rcc>
+  <rcc rId="897" sId="2">
+    <oc r="B44" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B44"/>
+  </rcc>
+  <rcc rId="898" sId="2">
+    <oc r="B45" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B45"/>
+  </rcc>
+  <rcc rId="899" sId="2">
+    <oc r="B46" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B46"/>
+  </rcc>
+  <rcc rId="900" sId="2">
+    <oc r="B47" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B47"/>
+  </rcc>
+  <rcc rId="901" sId="2">
+    <oc r="B48" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B48"/>
+  </rcc>
+  <rcc rId="902" sId="2">
+    <oc r="B49" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B49"/>
+  </rcc>
+  <rcc rId="903" sId="2">
+    <oc r="B50" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B50"/>
+  </rcc>
+  <rcc rId="904" sId="2">
+    <oc r="B51" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B51"/>
+  </rcc>
+  <rcc rId="905" sId="2">
+    <oc r="B52" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B52"/>
+  </rcc>
+  <rcc rId="906" sId="2">
+    <oc r="B53" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B53"/>
+  </rcc>
+  <rcc rId="907" sId="2">
+    <oc r="B54" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B54"/>
+  </rcc>
+  <rcc rId="908" sId="2">
+    <oc r="B55" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B55"/>
+  </rcc>
+  <rcc rId="909" sId="2">
+    <oc r="B56" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B56"/>
+  </rcc>
+  <rcc rId="910" sId="2">
+    <oc r="B57" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B57"/>
+  </rcc>
+  <rcc rId="911" sId="2">
+    <oc r="B58" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B58"/>
+  </rcc>
+  <rcc rId="912" sId="2">
+    <oc r="B59" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B59"/>
+  </rcc>
+  <rcc rId="913" sId="2">
+    <oc r="B60" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B60"/>
+  </rcc>
+  <rcc rId="914" sId="2">
+    <oc r="B61" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B61"/>
+  </rcc>
+  <rcc rId="915" sId="2">
+    <oc r="B62" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B62"/>
+  </rcc>
+  <rcc rId="916" sId="2">
+    <oc r="B63" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B63"/>
+  </rcc>
+  <rcc rId="917" sId="2">
+    <oc r="B64" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B64"/>
+  </rcc>
+  <rcc rId="918" sId="2">
+    <oc r="B65" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B65"/>
+  </rcc>
+  <rcc rId="919" sId="2">
+    <oc r="B66" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B66"/>
+  </rcc>
+  <rcc rId="920" sId="2">
+    <oc r="B67" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B67"/>
+  </rcc>
+  <rcc rId="921" sId="2">
+    <oc r="B68" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B68"/>
+  </rcc>
+  <rcc rId="922" sId="2">
+    <oc r="B69" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B69"/>
+  </rcc>
+  <rcc rId="923" sId="2">
+    <oc r="B70" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B70"/>
+  </rcc>
+  <rcc rId="924" sId="2">
+    <oc r="B71" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B71"/>
+  </rcc>
+  <rcc rId="925" sId="2">
+    <oc r="B72" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B72"/>
+  </rcc>
+  <rcc rId="926" sId="2">
+    <oc r="B73" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B73"/>
+  </rcc>
+  <rcc rId="927" sId="2">
+    <oc r="B74" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B74"/>
+  </rcc>
+  <rcc rId="928" sId="2">
+    <oc r="B75" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B75"/>
+  </rcc>
+  <rcc rId="929" sId="2">
+    <oc r="B76" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B76"/>
+  </rcc>
+  <rcc rId="930" sId="2">
+    <oc r="B77" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B77"/>
+  </rcc>
+  <rcc rId="931" sId="2">
+    <oc r="B78" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B78"/>
+  </rcc>
+  <rcc rId="932" sId="2">
+    <oc r="B79" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B79"/>
+  </rcc>
+  <rcc rId="933" sId="2">
+    <oc r="B80" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B80"/>
+  </rcc>
+  <rcc rId="934" sId="2">
+    <oc r="B81" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B81"/>
+  </rcc>
+  <rcc rId="935" sId="2">
+    <oc r="B82" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B82"/>
+  </rcc>
+  <rcc rId="936" sId="2">
+    <oc r="B83" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B83"/>
+  </rcc>
+  <rcc rId="937" sId="2">
+    <oc r="B84" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B84"/>
+  </rcc>
+  <rcc rId="938" sId="2">
+    <oc r="B85" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B85"/>
+  </rcc>
+  <rcc rId="939" sId="2">
+    <oc r="B86" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B86"/>
+  </rcc>
+  <rcc rId="940" sId="2">
+    <oc r="B87" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B87"/>
+  </rcc>
+  <rcc rId="941" sId="2">
+    <oc r="B88" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B88"/>
+  </rcc>
+  <rcc rId="942" sId="2">
+    <oc r="B89" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B89"/>
+  </rcc>
+  <rcc rId="943" sId="2">
+    <oc r="B90" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B90"/>
+  </rcc>
+  <rcc rId="944" sId="2">
+    <oc r="B91" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B91"/>
+  </rcc>
+  <rcc rId="945" sId="2">
+    <oc r="B92" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B92"/>
+  </rcc>
+  <rcc rId="946" sId="2">
+    <oc r="B93" t="inlineStr">
+      <is>
+        <t>YES</t>
+      </is>
+    </oc>
+    <nc r="B93"/>
+  </rcc>
 </revisions>
 </file>
 
@@ -10885,9 +12483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10925,9 +12523,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10962,7 +12560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10997,7 +12595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11170,14 +12768,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
@@ -11205,7 +12801,7 @@
         <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11239,7 +12835,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11260,23 +12856,23 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B8" sqref="B8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}">
       <selection activeCell="F20" sqref="F20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -11288,83 +12884,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
     <col min="8" max="8" width="37" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="2" customWidth="1"/>
     <col min="21" max="21" width="11" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="2" customWidth="1"/>
     <col min="23" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="10.109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" style="2" customWidth="1"/>
     <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-    </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+    </row>
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -11456,7 +13052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickTop="1">
+    <row r="3" spans="1:30" ht="15.75" thickTop="1">
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
@@ -12947,13 +14543,13 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F89" s="2">
         <v>2</v>
@@ -12964,13 +14560,13 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F90" s="2">
         <v>2</v>
@@ -12981,13 +14577,13 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
@@ -12998,13 +14594,13 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F92" s="2">
         <v>2</v>
@@ -13015,13 +14611,13 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F93" s="2">
         <v>2</v>
@@ -13030,37 +14626,105 @@
         <v>264</v>
       </c>
     </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y+CBG6/YKaQ6HsaQYTqaGGAc9K7SdI4KYNN5n42I5k04yiTX0Fn8xQwrYnwNAtl9mwRmr3UcHPCrpySoPgBJNA==" saltValue="2QS/OSgjoJCpqDc5Ec8Idw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AD2"/>
+  <autoFilter ref="A2:AD2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AD2"/>
-    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A2:Y2" xr:uid="{04F01392-B57C-4DBA-BF68-B6A197A9DC62}"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:Y2" xr:uid="{14E570E5-72DA-4369-9023-CD075EBEAB70}"/>
     </customSheetView>
     <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="M60" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A83" sqref="A83:XFD83"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A2:AD2" xr:uid="{C2B87A9A-E998-4F67-9978-9A67B90C9193}"/>
+    </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AD2"/>
+      <autoFilter ref="A2:AD2" xr:uid="{7117095B-275F-4604-8734-F66C28B76246}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -13069,10 +14733,10 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 W1:AA1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 W1:AA1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:V1 A1 C1:E1 G1:H1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:V1 A1 C1:E1 G1:H1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$F$31:$J$31</formula1>
     </dataValidation>
   </dataValidations>
@@ -13081,49 +14745,49 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>description!$F$140:$H$140</xm:f>
           </x14:formula1>
           <xm:sqref>AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>description!$F$141:$H$141</xm:f>
           </x14:formula1>
           <xm:sqref>AC1:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>description!$F$122:$H$122</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>description!$F$121:$K$121</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>description!$F$123:$H$123</xm:f>
           </x14:formula1>
           <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>description!$E$113:$F$113</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>description!$F$117:$H$117</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>description!$F$120:$K$120</xm:f>
           </x14:formula1>
@@ -13136,25 +14800,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="32" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -13177,7 +14841,7 @@
     <row r="107" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="108" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="109" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="110" spans="1:14" ht="15" thickBot="1">
+    <row r="110" spans="1:14" ht="15.75" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>71</v>
       </c>
@@ -13185,7 +14849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15" thickBot="1">
+    <row r="111" spans="1:14" ht="15.75" thickBot="1">
       <c r="A111" s="9" t="s">
         <v>73</v>
       </c>
@@ -13201,17 +14865,17 @@
       <c r="E111" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F111" s="73" t="s">
+      <c r="F111" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="75"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -14013,7 +15677,7 @@
       <c r="M141" s="18"/>
       <c r="N141" s="19"/>
     </row>
-    <row r="142" spans="1:14" ht="15" thickBot="1">
+    <row r="142" spans="1:14" ht="15.75" thickBot="1">
       <c r="A142" s="20" t="s">
         <v>112</v>
       </c>
@@ -14037,7 +15701,7 @@
       <c r="M142" s="21"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1">
+    <row r="145" spans="1:8" ht="15.75" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>113</v>
       </c>
@@ -14075,7 +15739,7 @@
       <c r="A147" s="26">
         <v>1</v>
       </c>
-      <c r="B147" s="76" t="s">
+      <c r="B147" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="27" t="s">
@@ -14101,7 +15765,7 @@
       <c r="A148" s="26">
         <v>2</v>
       </c>
-      <c r="B148" s="77"/>
+      <c r="B148" s="72"/>
       <c r="C148" s="28" t="s">
         <v>126</v>
       </c>
@@ -14123,7 +15787,7 @@
       <c r="A149" s="26">
         <v>3</v>
       </c>
-      <c r="B149" s="77"/>
+      <c r="B149" s="72"/>
       <c r="C149" s="28" t="s">
         <v>6</v>
       </c>
@@ -14143,7 +15807,7 @@
       <c r="A150" s="26">
         <v>4</v>
       </c>
-      <c r="B150" s="77"/>
+      <c r="B150" s="72"/>
       <c r="C150" s="28" t="s">
         <v>128</v>
       </c>
@@ -14167,7 +15831,7 @@
       <c r="A151" s="26">
         <v>5</v>
       </c>
-      <c r="B151" s="77"/>
+      <c r="B151" s="72"/>
       <c r="C151" s="27" t="s">
         <v>130</v>
       </c>
@@ -14191,7 +15855,7 @@
       <c r="A152" s="26">
         <v>6</v>
       </c>
-      <c r="B152" s="77"/>
+      <c r="B152" s="72"/>
       <c r="C152" s="27" t="s">
         <v>134</v>
       </c>
@@ -14215,7 +15879,7 @@
       <c r="A153" s="26">
         <v>7</v>
       </c>
-      <c r="B153" s="77"/>
+      <c r="B153" s="72"/>
       <c r="C153" s="28" t="s">
         <v>137</v>
       </c>
@@ -14237,7 +15901,7 @@
       <c r="A154" s="26">
         <v>8</v>
       </c>
-      <c r="B154" s="77"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="27" t="s">
         <v>138</v>
       </c>
@@ -14261,7 +15925,7 @@
       <c r="A155" s="26">
         <v>9</v>
       </c>
-      <c r="B155" s="77"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="27" t="s">
         <v>139</v>
       </c>
@@ -14285,7 +15949,7 @@
       <c r="A156" s="26">
         <v>10</v>
       </c>
-      <c r="B156" s="77"/>
+      <c r="B156" s="72"/>
       <c r="C156" s="28" t="s">
         <v>140</v>
       </c>
@@ -14309,7 +15973,7 @@
       <c r="A157" s="26">
         <v>11</v>
       </c>
-      <c r="B157" s="77"/>
+      <c r="B157" s="72"/>
       <c r="C157" s="28" t="s">
         <v>141</v>
       </c>
@@ -14333,7 +15997,7 @@
       <c r="A158" s="26">
         <v>12</v>
       </c>
-      <c r="B158" s="77"/>
+      <c r="B158" s="72"/>
       <c r="C158" s="28" t="s">
         <v>143</v>
       </c>
@@ -14355,7 +16019,7 @@
       <c r="A159" s="26">
         <v>13</v>
       </c>
-      <c r="B159" s="78"/>
+      <c r="B159" s="73"/>
       <c r="C159" s="28" t="s">
         <v>52</v>
       </c>
@@ -14379,7 +16043,7 @@
       <c r="A160" s="26">
         <v>14</v>
       </c>
-      <c r="B160" s="71" t="s">
+      <c r="B160" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C160" s="28" t="s">
@@ -14405,7 +16069,7 @@
       <c r="A161" s="26">
         <v>15</v>
       </c>
-      <c r="B161" s="72"/>
+      <c r="B161" s="67"/>
       <c r="C161" s="28" t="s">
         <v>151</v>
       </c>
@@ -14429,7 +16093,7 @@
       <c r="A162" s="26">
         <v>16</v>
       </c>
-      <c r="B162" s="76" t="s">
+      <c r="B162" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C162" s="28" t="s">
@@ -14453,7 +16117,7 @@
       <c r="A163" s="26">
         <v>17</v>
       </c>
-      <c r="B163" s="79"/>
+      <c r="B163" s="74"/>
       <c r="C163" s="27" t="s">
         <v>155</v>
       </c>
@@ -14475,7 +16139,7 @@
       <c r="A164" s="26">
         <v>18</v>
       </c>
-      <c r="B164" s="78"/>
+      <c r="B164" s="73"/>
       <c r="C164" s="27" t="s">
         <v>157</v>
       </c>
@@ -14495,7 +16159,7 @@
       <c r="A165" s="26">
         <v>19</v>
       </c>
-      <c r="B165" s="71" t="s">
+      <c r="B165" s="66" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="28" t="s">
@@ -14519,7 +16183,7 @@
       <c r="A166" s="26">
         <v>20</v>
       </c>
-      <c r="B166" s="72"/>
+      <c r="B166" s="67"/>
       <c r="C166" s="28" t="s">
         <v>162</v>
       </c>
@@ -14539,7 +16203,7 @@
       <c r="A167" s="26">
         <v>21</v>
       </c>
-      <c r="B167" s="72"/>
+      <c r="B167" s="67"/>
       <c r="C167" s="28" t="s">
         <v>163</v>
       </c>
@@ -14559,7 +16223,7 @@
       <c r="A168" s="26">
         <v>22</v>
       </c>
-      <c r="B168" s="72"/>
+      <c r="B168" s="67"/>
       <c r="C168" s="28" t="s">
         <v>164</v>
       </c>
@@ -14579,7 +16243,7 @@
       <c r="A169" s="26">
         <v>23</v>
       </c>
-      <c r="B169" s="72"/>
+      <c r="B169" s="67"/>
       <c r="C169" s="28" t="s">
         <v>165</v>
       </c>
@@ -14599,7 +16263,7 @@
       <c r="A170" s="26">
         <v>24</v>
       </c>
-      <c r="B170" s="72"/>
+      <c r="B170" s="67"/>
       <c r="C170" s="28" t="s">
         <v>166</v>
       </c>
@@ -14619,7 +16283,7 @@
       <c r="A171" s="26">
         <v>25</v>
       </c>
-      <c r="B171" s="72"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="28" t="s">
         <v>167</v>
       </c>
@@ -14639,7 +16303,7 @@
       <c r="A172" s="26">
         <v>26</v>
       </c>
-      <c r="B172" s="72"/>
+      <c r="B172" s="67"/>
       <c r="C172" s="28" t="s">
         <v>37</v>
       </c>
@@ -14655,11 +16319,11 @@
       </c>
       <c r="H172" s="16"/>
     </row>
-    <row r="173" spans="1:8" ht="86.4">
+    <row r="173" spans="1:8" ht="90">
       <c r="A173" s="26">
         <v>27</v>
       </c>
-      <c r="B173" s="71" t="s">
+      <c r="B173" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C173" s="28" t="s">
@@ -14683,7 +16347,7 @@
       <c r="A174" s="26">
         <v>28</v>
       </c>
-      <c r="B174" s="72"/>
+      <c r="B174" s="67"/>
       <c r="C174" s="27" t="s">
         <v>171</v>
       </c>
@@ -14705,7 +16369,7 @@
       <c r="A175" s="26">
         <v>29</v>
       </c>
-      <c r="B175" s="72"/>
+      <c r="B175" s="67"/>
       <c r="C175" s="28" t="s">
         <v>174</v>
       </c>
@@ -14727,7 +16391,7 @@
       <c r="A176" s="26">
         <v>30</v>
       </c>
-      <c r="B176" s="76" t="s">
+      <c r="B176" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="28" t="s">
@@ -14749,11 +16413,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" thickBot="1">
+    <row r="177" spans="1:8" ht="15.75" thickBot="1">
       <c r="A177" s="31">
         <v>31</v>
       </c>
-      <c r="B177" s="77"/>
+      <c r="B177" s="72"/>
       <c r="C177" s="32" t="s">
         <v>179</v>
       </c>
@@ -14777,7 +16441,7 @@
       <c r="A178" s="23">
         <v>32</v>
       </c>
-      <c r="B178" s="80" t="s">
+      <c r="B178" s="75" t="s">
         <v>181</v>
       </c>
       <c r="C178" s="33" t="s">
@@ -14801,7 +16465,7 @@
       <c r="A179" s="26">
         <v>33</v>
       </c>
-      <c r="B179" s="81"/>
+      <c r="B179" s="76"/>
       <c r="C179" s="27" t="s">
         <v>185</v>
       </c>
@@ -14823,7 +16487,7 @@
       <c r="A180" s="26">
         <v>34</v>
       </c>
-      <c r="B180" s="82"/>
+      <c r="B180" s="77"/>
       <c r="C180" s="34" t="s">
         <v>188</v>
       </c>
@@ -14845,7 +16509,7 @@
       <c r="A181" s="31">
         <v>35</v>
       </c>
-      <c r="B181" s="82"/>
+      <c r="B181" s="77"/>
       <c r="C181" s="34" t="s">
         <v>189</v>
       </c>
@@ -14867,17 +16531,17 @@
       <c r="A182" s="31">
         <v>36</v>
       </c>
-      <c r="B182" s="82"/>
+      <c r="B182" s="77"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="42" t="s">
+      <c r="D182" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E182" s="42" t="s">
+      <c r="E182" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F182" s="42"/>
+      <c r="F182" s="32"/>
       <c r="G182" s="34" t="s">
         <v>250</v>
       </c>
@@ -14887,15 +16551,15 @@
       <c r="A183" s="31">
         <v>37</v>
       </c>
-      <c r="B183" s="82"/>
+      <c r="B183" s="77"/>
       <c r="C183" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D183" s="42" t="s">
+      <c r="D183" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42" t="s">
+      <c r="E183" s="32"/>
+      <c r="F183" s="32" t="s">
         <v>245</v>
       </c>
       <c r="G183" s="34" t="s">
@@ -14905,11 +16569,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15" thickBot="1">
+    <row r="184" spans="1:8" ht="15.75" thickBot="1">
       <c r="A184" s="35">
         <v>38</v>
       </c>
-      <c r="B184" s="83"/>
+      <c r="B184" s="78"/>
       <c r="C184" s="36" t="s">
         <v>248</v>
       </c>
@@ -14936,7 +16600,7 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="B186" s="37" t="s">
+      <c r="B186" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -14945,7 +16609,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" thickBot="1">
+    <row r="197" spans="1:7" ht="15.75" thickBot="1">
       <c r="A197" s="6" t="s">
         <v>197</v>
       </c>
@@ -14957,280 +16621,280 @@
       <c r="A198" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="84" t="s">
+      <c r="C198" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
-      <c r="F198" s="39" t="s">
+      <c r="D198" s="79"/>
+      <c r="E198" s="79"/>
+      <c r="F198" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G198" s="40" t="s">
+      <c r="G198" s="38" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="85" t="s">
+      <c r="A199" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="72" t="s">
+      <c r="B199" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="87" t="s">
+      <c r="C199" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D199" s="88"/>
-      <c r="E199" s="88"/>
+      <c r="D199" s="83"/>
+      <c r="E199" s="83"/>
       <c r="F199" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G199" s="41" t="s">
+      <c r="G199" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="85"/>
-      <c r="B200" s="86"/>
-      <c r="C200" s="89" t="s">
+      <c r="A200" s="80"/>
+      <c r="B200" s="81"/>
+      <c r="C200" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D200" s="90"/>
-      <c r="E200" s="90"/>
+      <c r="D200" s="85"/>
+      <c r="E200" s="85"/>
       <c r="F200" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G200" s="43" t="s">
+      <c r="G200" s="40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="85"/>
-      <c r="B201" s="72" t="s">
+      <c r="A201" s="80"/>
+      <c r="B201" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="C201" s="91" t="s">
+      <c r="C201" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91"/>
+      <c r="D201" s="86"/>
+      <c r="E201" s="86"/>
       <c r="F201" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G201" s="41" t="s">
+      <c r="G201" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="85"/>
-      <c r="B202" s="72"/>
-      <c r="C202" s="89" t="s">
+      <c r="A202" s="80"/>
+      <c r="B202" s="67"/>
+      <c r="C202" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="D202" s="89"/>
-      <c r="E202" s="89"/>
+      <c r="D202" s="84"/>
+      <c r="E202" s="84"/>
       <c r="F202" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G202" s="41" t="s">
+      <c r="G202" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="85"/>
-      <c r="B203" s="86" t="s">
+      <c r="A203" s="80"/>
+      <c r="B203" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="C203" s="92" t="s">
+      <c r="C203" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D203" s="93"/>
-      <c r="E203" s="94"/>
+      <c r="D203" s="88"/>
+      <c r="E203" s="89"/>
       <c r="F203" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G203" s="41" t="s">
+      <c r="G203" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="85"/>
-      <c r="B204" s="78"/>
-      <c r="C204" s="92" t="s">
+      <c r="A204" s="80"/>
+      <c r="B204" s="73"/>
+      <c r="C204" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="93"/>
-      <c r="E204" s="94"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="89"/>
       <c r="F204" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G204" s="41" t="s">
+      <c r="G204" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="85"/>
-      <c r="B205" s="72" t="s">
+      <c r="A205" s="80"/>
+      <c r="B205" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C205" s="91" t="s">
+      <c r="C205" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D205" s="91"/>
-      <c r="E205" s="91"/>
+      <c r="D205" s="86"/>
+      <c r="E205" s="86"/>
       <c r="F205" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G205" s="41" t="s">
+      <c r="G205" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="85"/>
-      <c r="B206" s="72"/>
-      <c r="C206" s="91" t="s">
+      <c r="A206" s="80"/>
+      <c r="B206" s="67"/>
+      <c r="C206" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D206" s="91"/>
-      <c r="E206" s="91"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="86"/>
       <c r="F206" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G206" s="41" t="s">
+      <c r="G206" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="85" t="s">
+      <c r="A207" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="B207" s="72" t="s">
+      <c r="B207" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C207" s="71" t="s">
+      <c r="C207" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D207" s="72"/>
-      <c r="E207" s="72"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
       <c r="F207" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G207" s="41" t="s">
+      <c r="G207" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="85"/>
-      <c r="B208" s="72"/>
-      <c r="C208" s="72" t="s">
+      <c r="A208" s="80"/>
+      <c r="B208" s="67"/>
+      <c r="C208" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D208" s="72"/>
-      <c r="E208" s="72"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
       <c r="F208" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G208" s="41" t="s">
+      <c r="G208" s="39" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="85"/>
-      <c r="B209" s="72" t="s">
+      <c r="A209" s="80"/>
+      <c r="B209" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C209" s="72" t="s">
+      <c r="C209" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D209" s="72"/>
-      <c r="E209" s="72"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
       <c r="F209" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G209" s="41" t="s">
+      <c r="G209" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="85"/>
-      <c r="B210" s="72"/>
-      <c r="C210" s="72" t="s">
+      <c r="A210" s="80"/>
+      <c r="B210" s="67"/>
+      <c r="C210" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D210" s="72"/>
-      <c r="E210" s="72"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
       <c r="F210" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G210" s="41" t="s">
+      <c r="G210" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="B211" s="72" t="s">
+      <c r="B211" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="C211" s="71" t="s">
+      <c r="C211" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
       <c r="F211" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G211" s="41" t="s">
+      <c r="G211" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="85"/>
-      <c r="B212" s="72"/>
-      <c r="C212" s="72" t="s">
+      <c r="A212" s="80"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
       <c r="F212" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G212" s="41" t="s">
+      <c r="G212" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="85"/>
-      <c r="B213" s="72" t="s">
+      <c r="A213" s="80"/>
+      <c r="B213" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C213" s="71" t="s">
+      <c r="C213" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D213" s="72"/>
-      <c r="E213" s="72"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
       <c r="F213" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G213" s="41" t="s">
+      <c r="G213" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15" thickBot="1">
-      <c r="A214" s="96"/>
-      <c r="B214" s="97"/>
-      <c r="C214" s="97" t="s">
+    <row r="214" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A214" s="91"/>
+      <c r="B214" s="92"/>
+      <c r="C214" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="D214" s="97"/>
-      <c r="E214" s="97"/>
+      <c r="D214" s="92"/>
+      <c r="E214" s="92"/>
       <c r="F214" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="G214" s="44" t="s">
+      <c r="G214" s="41" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15238,60 +16902,43 @@
       <c r="A215" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="37"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
-    </row>
-    <row r="218" spans="1:7" ht="15" thickBot="1">
+    </row>
+    <row r="218" spans="1:7" ht="15.75" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" thickBot="1">
-      <c r="A219" s="45" t="s">
+    </row>
+    <row r="219" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A219" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B219" s="98" t="s">
+      <c r="B219" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C219" s="98"/>
-      <c r="D219" s="98"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="46" t="s">
+      <c r="C219" s="93"/>
+      <c r="D219" s="93"/>
+      <c r="E219" s="93"/>
+      <c r="F219" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="G219" s="47" t="s">
+      <c r="G219" s="44" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="93" customHeight="1">
-      <c r="A220" s="48" t="s">
+      <c r="A220" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="99" t="s">
+      <c r="B220" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="C220" s="78"/>
-      <c r="D220" s="78"/>
-      <c r="E220" s="78"/>
-      <c r="F220" s="49" t="s">
+      <c r="C220" s="73"/>
+      <c r="D220" s="73"/>
+      <c r="E220" s="73"/>
+      <c r="F220" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="G220" s="50" t="s">
+      <c r="G220" s="47" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15299,12 +16946,12 @@
       <c r="A221" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B221" s="100" t="s">
+      <c r="B221" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="C221" s="101"/>
-      <c r="D221" s="101"/>
-      <c r="E221" s="102"/>
+      <c r="C221" s="96"/>
+      <c r="D221" s="96"/>
+      <c r="E221" s="97"/>
       <c r="F221" s="15" t="s">
         <v>59</v>
       </c>
@@ -15316,12 +16963,12 @@
       <c r="A222" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B222" s="100" t="s">
+      <c r="B222" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="C222" s="101"/>
-      <c r="D222" s="101"/>
-      <c r="E222" s="102"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="96"/>
+      <c r="E222" s="97"/>
       <c r="F222" s="18" t="s">
         <v>59</v>
       </c>
@@ -15333,12 +16980,12 @@
       <c r="A223" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B223" s="83" t="s">
+      <c r="B223" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="C223" s="97"/>
-      <c r="D223" s="97"/>
-      <c r="E223" s="97"/>
+      <c r="C223" s="92"/>
+      <c r="D223" s="92"/>
+      <c r="E223" s="92"/>
       <c r="F223" s="21" t="s">
         <v>59</v>
       </c>
@@ -15347,279 +16994,279 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="C224" s="51"/>
-    </row>
-    <row r="226" spans="1:7" ht="15" thickBot="1">
+      <c r="C224" s="48"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" thickBot="1">
       <c r="A226" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15" thickBot="1">
+    <row r="227" spans="1:7" ht="15.75" thickBot="1">
       <c r="A227" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B227" s="38" t="s">
+      <c r="B227" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C227" s="52" t="s">
+      <c r="C227" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D227" s="53" t="s">
+      <c r="D227" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E227" s="53"/>
-      <c r="F227" s="54"/>
-      <c r="G227" s="40" t="s">
+      <c r="E227" s="50"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="38" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="55">
+      <c r="A228" s="51">
         <v>42682</v>
       </c>
-      <c r="B228" s="56">
+      <c r="B228" s="52">
         <v>1.04</v>
       </c>
       <c r="C228" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D228" s="95" t="s">
+      <c r="D228" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="E228" s="95"/>
-      <c r="F228" s="95"/>
-      <c r="G228" s="57"/>
+      <c r="E228" s="90"/>
+      <c r="F228" s="90"/>
+      <c r="G228" s="25"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="58">
+      <c r="A229" s="53">
         <v>42692</v>
       </c>
-      <c r="B229" s="59">
+      <c r="B229" s="54">
         <v>1.05</v>
       </c>
       <c r="C229" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D229" s="107" t="s">
+      <c r="D229" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="E229" s="107"/>
-      <c r="F229" s="107"/>
-      <c r="G229" s="41"/>
+      <c r="E229" s="102"/>
+      <c r="F229" s="102"/>
+      <c r="G229" s="39"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="58">
+      <c r="A230" s="53">
         <v>42955</v>
       </c>
-      <c r="B230" s="59">
+      <c r="B230" s="54">
         <v>1.06</v>
       </c>
       <c r="C230" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D230" s="107" t="s">
+      <c r="D230" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="E230" s="107"/>
-      <c r="F230" s="107"/>
-      <c r="G230" s="41"/>
+      <c r="E230" s="102"/>
+      <c r="F230" s="102"/>
+      <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="58">
+      <c r="A231" s="53">
         <v>42991</v>
       </c>
-      <c r="B231" s="59">
+      <c r="B231" s="54">
         <v>1.07</v>
       </c>
       <c r="C231" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D231" s="107" t="s">
+      <c r="D231" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="E231" s="107"/>
-      <c r="F231" s="107"/>
-      <c r="G231" s="41"/>
+      <c r="E231" s="102"/>
+      <c r="F231" s="102"/>
+      <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="58">
+      <c r="A232" s="53">
         <v>43026</v>
       </c>
-      <c r="B232" s="59">
+      <c r="B232" s="54">
         <v>1.08</v>
       </c>
       <c r="C232" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D232" s="107" t="s">
+      <c r="D232" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="E232" s="107"/>
-      <c r="F232" s="107"/>
-      <c r="G232" s="41"/>
+      <c r="E232" s="102"/>
+      <c r="F232" s="102"/>
+      <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="58">
+      <c r="A233" s="53">
         <v>43069</v>
       </c>
-      <c r="B233" s="59">
+      <c r="B233" s="54">
         <v>1.0900000000000001</v>
       </c>
       <c r="C233" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D233" s="107" t="s">
+      <c r="D233" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="E233" s="107"/>
-      <c r="F233" s="107"/>
-      <c r="G233" s="41"/>
+      <c r="E233" s="102"/>
+      <c r="F233" s="102"/>
+      <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="60">
+      <c r="A234" s="55">
         <v>43248</v>
       </c>
-      <c r="B234" s="61">
+      <c r="B234" s="56">
         <v>1.1000000000000001</v>
       </c>
       <c r="C234" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D234" s="103" t="s">
+      <c r="D234" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="E234" s="104"/>
-      <c r="F234" s="105"/>
-      <c r="G234" s="43"/>
+      <c r="E234" s="99"/>
+      <c r="F234" s="100"/>
+      <c r="G234" s="40"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="60">
+      <c r="A235" s="55">
         <v>43339</v>
       </c>
-      <c r="B235" s="61">
+      <c r="B235" s="56">
         <v>1.1100000000000001</v>
       </c>
       <c r="C235" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D235" s="103" t="s">
+      <c r="D235" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="E235" s="104"/>
-      <c r="F235" s="105"/>
-      <c r="G235" s="43"/>
+      <c r="E235" s="99"/>
+      <c r="F235" s="100"/>
+      <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="60">
+      <c r="A236" s="55">
         <v>43542</v>
       </c>
-      <c r="B236" s="61">
+      <c r="B236" s="56">
         <v>1.1200000000000001</v>
       </c>
       <c r="C236" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D236" s="103" t="s">
+      <c r="D236" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="E236" s="104"/>
-      <c r="F236" s="105"/>
-      <c r="G236" s="43"/>
+      <c r="E236" s="99"/>
+      <c r="F236" s="100"/>
+      <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="60">
+      <c r="A237" s="55">
         <v>43599</v>
       </c>
-      <c r="B237" s="61">
+      <c r="B237" s="56">
         <v>1.1299999999999999</v>
       </c>
       <c r="C237" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D237" s="62" t="s">
+      <c r="D237" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E237" s="63"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="43"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="59"/>
+      <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="60">
+      <c r="A238" s="55">
         <v>43643</v>
       </c>
-      <c r="B238" s="61">
+      <c r="B238" s="56">
         <v>1.1399999999999999</v>
       </c>
       <c r="C238" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D238" s="62" t="s">
+      <c r="D238" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E238" s="63"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="43"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="40"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="60">
+      <c r="A239" s="55">
         <v>43894</v>
       </c>
-      <c r="B239" s="61">
+      <c r="B239" s="56">
         <v>1.1499999999999999</v>
       </c>
       <c r="C239" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D239" s="62" t="s">
+      <c r="D239" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E239" s="63"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="43"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="60">
+      <c r="A240" s="55">
         <v>44017</v>
       </c>
-      <c r="B240" s="61">
+      <c r="B240" s="56">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C240" s="42" t="s">
+      <c r="C240" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D240" s="62" t="s">
+      <c r="D240" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="E240" s="63"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="43"/>
-    </row>
-    <row r="241" spans="1:7" ht="15" thickBot="1">
-      <c r="A241" s="65">
+      <c r="E240" s="58"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="40"/>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A241" s="60">
         <v>44118</v>
       </c>
-      <c r="B241" s="66">
+      <c r="B241" s="61">
         <v>1.17</v>
       </c>
       <c r="C241" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D241" s="106" t="s">
+      <c r="D241" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="E241" s="106"/>
-      <c r="F241" s="106"/>
-      <c r="G241" s="44"/>
+      <c r="E241" s="101"/>
+      <c r="F241" s="101"/>
+      <c r="G241" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ap+vydlQsTivses2kTOZJOfe+E+ofk18ovQVkbwX/cy/2QzQqNYlkd6ZRwhTqYv60tXLJj9O4rjHfeOPlaqbDA==" saltValue="NIz07f4XZ+x9XJy8gC1img==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A172">
+    <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}" scale="115" topLeftCell="A172">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -15685,12 +17332,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -15699,9 +17346,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15713,6 +17357,9 @@
     <customSheetView guid="{0278B0C9-EFE0-4CCF-A7DD-30F52F97656D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
